--- a/2_15_java_basic/単元課題（Java基礎）_基本課題_チェックリスト.xlsx
+++ b/2_15_java_basic/単元課題（Java基礎）_基本課題_チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbw9082-my.sharepoint.com/personal/n_yamamoto_bbw9082_onmicrosoft_com/Documents/2020年新入社員研修資料/2020年 新入社員研修/20_テクニカル研修/10_講義/053_Java基礎_課題/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirik\git\seiryu-sai-educure\2_15_java_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC193F-664E-E64A-93BB-74A2A09BAA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD895A14-508D-40A8-85E7-8A564E2309A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21150" yWindow="-4620" windowWidth="20160" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="チェックリスト" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -686,6 +686,9 @@
       <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,9 +1247,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1309,21 +1309,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1617,29 +1603,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4:F5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1672,11 +1658,15 @@
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:8" ht="38.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12">
@@ -1688,11 +1678,15 @@
       <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
+      <c r="F4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="15">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
       <c r="C5" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1702,11 +1696,15 @@
       <c r="E5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
+      <c r="F5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
       <c r="C6" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -1716,11 +1714,15 @@
       <c r="E6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="16">
         <v>2.4</v>
       </c>
@@ -1730,11 +1732,15 @@
       <c r="E7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
+      <c r="F7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
       <c r="C8" s="16">
         <v>2.5</v>
       </c>
@@ -1744,11 +1750,15 @@
       <c r="E8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
+      <c r="F8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
       <c r="C9" s="16">
         <v>2.6</v>
       </c>
@@ -1758,11 +1768,15 @@
       <c r="E9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="37"/>
+      <c r="F9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
       <c r="C10" s="16">
         <v>2.7</v>
       </c>
@@ -1772,11 +1786,15 @@
       <c r="E10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="37"/>
+      <c r="F10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
       <c r="C11" s="16">
         <v>2.8</v>
       </c>
@@ -1786,12 +1804,15 @@
       <c r="E11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
+      <c r="F11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
       <c r="C12" s="16">
         <v>2.9</v>
       </c>
@@ -1801,12 +1822,15 @@
       <c r="E12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
+      <c r="F12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
@@ -1816,27 +1840,33 @@
       <c r="E13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="2:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="22" t="s">
+      <c r="F13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="2:8" ht="57" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
+      <c r="F14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="24">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1848,12 +1878,15 @@
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="15">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B16" s="37"/>
       <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
@@ -1863,27 +1896,33 @@
       <c r="E16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
-      <c r="C17" s="22" t="s">
+      <c r="F16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" ht="57" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="36" t="s">
+      <c r="F17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="24">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1895,12 +1934,15 @@
       <c r="E18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B19" s="39"/>
+      <c r="F18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="15">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="38"/>
       <c r="C19" s="16" t="s">
         <v>35</v>
       </c>
@@ -1910,64 +1952,70 @@
       <c r="E19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="26" t="s">
+      <c r="F19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="20">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="22" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="28">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F23" s="30" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <f>COUNTIF($F$3:$F$20,"=○")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F24" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f>COUNTIF($F$3:$F$20,"=×")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F25" s="32" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f>COUNTBLANK($F$3:$F$20)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <f>G23/(G23+G24+G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1977,20 +2025,12 @@
     <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C3:G10 C17:G20">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C3:G20">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F3="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F3="○"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G16">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F11="×"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F11="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
